--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966F2A21-D4E5-48B9-B56B-843354DF8F83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="15600" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -52,8 +51,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,28 +452,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:U33"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18.75">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -485,7 +484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="18.75">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -496,7 +495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="18.75">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -507,7 +506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="18.75">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -518,7 +517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="18.75">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -531,10 +530,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{7ED63F57-644F-4E78-9587-08CB51DEF5FB}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{EB480860-584A-43F6-9478-DD4F2553FE6D}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{EB701B42-A320-4932-9568-F231C8F446AB}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{716734F3-6854-43CF-931C-C8D1149FAF15}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>

--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -452,7 +452,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -463,7 +463,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
